--- a/表格模版/UPS(美洲).xlsx
+++ b/表格模版/UPS(美洲).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26720" windowHeight="9500"/>
+    <workbookView windowWidth="30020" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="发票" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>COMERCIAL INVOICE</t>
   </si>
@@ -28,6 +28,9 @@
     <t>DATE OF EXPORTATION</t>
   </si>
   <si>
+    <t>运单号码：FBA18MVV9LC3</t>
+  </si>
+  <si>
     <t>SHIPPER/EXPORTER(COMPLETE NAME AND ADDRESS)</t>
   </si>
   <si>
@@ -38,6 +41,12 @@
   </si>
   <si>
     <t>收件人/公司地址:</t>
+  </si>
+  <si>
+    <t>FBA：编号: FBA18MVV9LC3</t>
+  </si>
+  <si>
+    <t>US，1300 Corporate Way，OLYPHANT，PA，Amazon.com Services LLC，18447</t>
   </si>
   <si>
     <t>Item No.箱号
@@ -106,7 +115,7 @@
     <numFmt numFmtId="178" formatCode="&quot;US$&quot;#,##0.00;&quot;-US$&quot;#,##0.00"/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -134,6 +143,12 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -746,16 +761,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -764,123 +776,126 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -915,6 +930,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1254,10 +1281,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -1272,8 +1299,8 @@
     <col min="8" max="8" width="25.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.0089285714286" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.2410714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.875" style="2" customWidth="1"/>
@@ -1340,12 +1367,14 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" ht="48.75" customHeight="1" spans="1:15">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="4"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7">
         <f ca="1">TODAY()</f>
-        <v>45653</v>
+        <v>45663</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1361,12 +1390,12 @@
     </row>
     <row r="5" ht="48" customHeight="1" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="6"/>
       <c r="D5" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1382,12 +1411,12 @@
     </row>
     <row r="6" ht="31.5" customHeight="1" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="6"/>
       <c r="D6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1402,10 +1431,14 @@
       <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -1455,50 +1488,67 @@
     </row>
     <row r="12" ht="54.75" customHeight="1" spans="1:15">
       <c r="A12" s="15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="J12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="K12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="L12" s="26" t="s">
         <v>22</v>
       </c>
+      <c r="M12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="90" customHeight="1" spans="1:15">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/表格模版/UPS(美洲).xlsx
+++ b/表格模版/UPS(美洲).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26720" windowHeight="9500"/>
+    <workbookView windowWidth="28740" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="发票" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <numFmt numFmtId="178" formatCode="&quot;US$&quot;#,##0.00;&quot;-US$&quot;#,##0.00"/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -134,6 +134,12 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -746,16 +752,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -764,123 +767,126 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="17">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -915,6 +921,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1254,10 +1272,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
@@ -1272,8 +1290,8 @@
     <col min="8" max="8" width="25.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.0089285714286" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.2410714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.875" style="2" customWidth="1"/>
@@ -1345,7 +1363,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="7">
         <f ca="1">TODAY()</f>
-        <v>45653</v>
+        <v>45663</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1469,10 +1487,10 @@
       <c r="E12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="16" t="s">
@@ -1481,24 +1499,41 @@
       <c r="I12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="27" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="13" ht="90" customHeight="1" spans="1:15">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
